--- a/Document/02. Design/02. DetailDesign/Task 2/Detail_Design_Select_UV.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 2/Detail_Design_Select_UV.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66E9B7-421A-47B6-9F6E-EC66440AFA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3855335-BCCE-4F00-960E-D7D8EA804D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B9CC48A-9D03-4636-B85F-313683FD45A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0B9CC48A-9D03-4636-B85F-313683FD45A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyệt Ứng Viên Screen" sheetId="1" r:id="rId1"/>
     <sheet name="Detail Design" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
   <si>
     <t>Mã Số</t>
   </si>
@@ -186,12 +183,6 @@
     <t>Giải Thích</t>
   </si>
   <si>
-    <t>Hiển Thị Khởi Tạo(Có điều kiện)</t>
-  </si>
-  <si>
-    <t>Thực hiện hiển thị màn hình của component</t>
-  </si>
-  <si>
     <t>Danh Sách API</t>
   </si>
   <si>
@@ -334,13 +325,67 @@
   </si>
   <si>
     <t>pathCV lưu trữ CV của ứng viên</t>
+  </si>
+  <si>
+    <t>View CV candidate</t>
+  </si>
+  <si>
+    <t>Thực hiện hiển thị Modal View CV Candidate</t>
+  </si>
+  <si>
+    <t>Hiển Thị Khởi Tạo</t>
+  </si>
+  <si>
+    <t>Hiển thị lý do đã từng apply</t>
+  </si>
+  <si>
+    <t>API  candidate.listbystatus</t>
+  </si>
+  <si>
+    <t>API candidate.pathCV</t>
+  </si>
+  <si>
+    <t>API candidate.update</t>
+  </si>
+  <si>
+    <t>API Xử lý Loại CV</t>
+  </si>
+  <si>
+    <t>API candidate.Note</t>
+  </si>
+  <si>
+    <t>ơ;\\\\\\\\\\\\\\\\\\\\\\\\\\\;0000000000000;;;;;;;;\</t>
+  </si>
+  <si>
+    <t>0o.;/'</t>
+  </si>
+  <si>
+    <t>5-f5----------------------------cfnj                                           jjmncvô-/p-ooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooggenf- c- i-jffffffffffffffff-m----------------------------------f*-f-</t>
+  </si>
+  <si>
+    <t>Ơ</t>
+  </si>
+  <si>
+    <t>PPCF[*\5iiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiitg33333333333333333333333333333333333333333333333333333333333333333333333333gs</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>e\\\\\\\\-00000\*******************************************************</t>
+  </si>
+  <si>
+    <t>*eơ/*ơ***poi</t>
+  </si>
+  <si>
+    <t>yA*&amp;UA&amp;;l888888888888888888888888888888888ooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo*----------------------------------------------------------------------111111111111111111121111111111111111111111111111111111111111111111111111111111111111111oo-l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +429,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -415,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -475,13 +544,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -494,6 +572,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -603,14 +703,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>871172</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -633,8 +733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3609974"/>
-          <a:ext cx="6976697" cy="6572251"/>
+          <a:off x="0" y="4491717"/>
+          <a:ext cx="7065143" cy="6381751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,15 +746,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>140153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47410</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>47409</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -677,8 +777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="10296525"/>
-          <a:ext cx="6152934" cy="2047875"/>
+          <a:off x="0" y="10873467"/>
+          <a:ext cx="6241380" cy="1993446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,14 +791,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>248537</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>48193</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>102622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -721,8 +821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12553950"/>
-          <a:ext cx="6354062" cy="4067743"/>
+          <a:off x="0" y="13506450"/>
+          <a:ext cx="6442508" cy="3948000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -735,14 +835,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>55789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>286642</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>172012</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>84926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -765,8 +865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16716375"/>
-          <a:ext cx="6392167" cy="4029637"/>
+          <a:off x="0" y="18191389"/>
+          <a:ext cx="6480613" cy="3915337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,14 +879,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>172326</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>124383</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>4640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -809,8 +909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20888325"/>
-          <a:ext cx="6277851" cy="4001058"/>
+          <a:off x="0" y="22766111"/>
+          <a:ext cx="6366297" cy="3886758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,25 +1221,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41580D13-950F-4334-9065-6F13D9F682BC}">
   <dimension ref="A14:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1315,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1342,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1269,7 +1369,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1296,7 +1396,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1423,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1450,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1477,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +1504,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1428,12 +1528,12 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1562,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1500,39 +1600,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BDB0E2-D717-431A-B9DC-D4DED14E3C28}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N218" sqref="N218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="45.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1543,787 +1643,924 @@
         <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I33" s="6" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="M20" t="e">
+        <f>\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="33" spans="9:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I34" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="M36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="J37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="7" t="s">
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A60" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="I60" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I62" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I63" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s">
+        <v>82</v>
+      </c>
+      <c r="L64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I67" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I68" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M68" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I35" s="2">
+      <c r="K69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I70" s="2">
+        <v>2</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+    </row>
+    <row r="80" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="I80" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I82" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="K83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
         <v>81</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="K84" t="s">
+        <v>82</v>
+      </c>
+      <c r="L84" t="s">
+        <v>85</v>
+      </c>
+      <c r="M84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I87" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I88" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I90" s="2">
+        <v>2</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="L90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="100" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A100" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+    </row>
+    <row r="106" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I106" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I110" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>81</v>
+      </c>
+      <c r="K112" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I36" s="2">
+      <c r="L112" t="s">
+        <v>85</v>
+      </c>
+      <c r="M112" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I115" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I116" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I117" s="2">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>110</v>
+      </c>
+      <c r="I118" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I39" s="6" t="s">
+      <c r="J118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" t="s">
+        <v>112</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+    </row>
+    <row r="131" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I131" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I136" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I137" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L137" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>81</v>
+      </c>
+      <c r="K138" t="s">
+        <v>82</v>
+      </c>
+      <c r="L138" t="s">
+        <v>85</v>
+      </c>
+      <c r="M138" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I141" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I40" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="7" t="s">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I142" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J142" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K142" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L142" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M142" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="7" t="s">
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K143" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="L143" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="M143" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L41" s="2" t="s">
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I144" s="2">
+        <v>2</v>
+      </c>
+      <c r="J144" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="K144" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I42" s="2">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="L144" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I43" s="2">
+      <c r="M144" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I145" s="2">
         <v>3</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M145" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I59" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I60" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>83</v>
-      </c>
-      <c r="K61" t="s">
-        <v>84</v>
-      </c>
-      <c r="L61" t="s">
-        <v>87</v>
-      </c>
-      <c r="M61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I64" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I65" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I67" s="2">
-        <v>2</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I68" s="2">
-        <v>3</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I76" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I77" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>83</v>
-      </c>
-      <c r="K78" t="s">
-        <v>84</v>
-      </c>
-      <c r="L78" t="s">
-        <v>87</v>
-      </c>
-      <c r="M78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I81" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I82" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M82" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I83" s="2">
-        <v>1</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I84" s="2">
-        <v>2</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="93" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I93" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I94" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>83</v>
-      </c>
-      <c r="K95" t="s">
-        <v>84</v>
-      </c>
-      <c r="L95" t="s">
-        <v>87</v>
-      </c>
-      <c r="M95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I98" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I99" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M99" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I100" s="2">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I101" s="2">
-        <v>2</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="120" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I120" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I121" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M121" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122" t="s">
-        <v>83</v>
-      </c>
-      <c r="K122" t="s">
-        <v>84</v>
-      </c>
-      <c r="L122" t="s">
-        <v>87</v>
-      </c>
-      <c r="M122" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I125" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I126" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L126" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M126" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I127" s="2">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I128" s="2">
-        <v>2</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I129" s="2">
-        <v>3</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>79</v>
+    </row>
+    <row r="218" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M218" t="s">
+        <v>106</v>
+      </c>
+      <c r="N218" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="28">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A124:C124"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
@@ -2342,8 +2579,14 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="D16:J16"/>
     <mergeCell ref="D17:J17"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="I106:K106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/02. Design/02. DetailDesign/Task 2/Detail_Design_Select_UV.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 2/Detail_Design_Select_UV.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\Task 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\Candidate-Management\Document\02. Design\02. DetailDesign\Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3855335-BCCE-4F00-960E-D7D8EA804D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658633BA-63B7-4F32-BC54-0E78DBFBA5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0B9CC48A-9D03-4636-B85F-313683FD45A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B9CC48A-9D03-4636-B85F-313683FD45A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyệt Ứng Viên Screen" sheetId="1" r:id="rId1"/>
     <sheet name="Detail Design" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>Mã Số</t>
   </si>
@@ -354,21 +355,9 @@
     <t>API candidate.Note</t>
   </si>
   <si>
-    <t>ơ;\\\\\\\\\\\\\\\\\\\\\\\\\\\;0000000000000;;;;;;;;\</t>
-  </si>
-  <si>
     <t>0o.;/'</t>
   </si>
   <si>
-    <t>5-f5----------------------------cfnj                                           jjmncvô-/p-ooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooggenf- c- i-jffffffffffffffff-m----------------------------------f*-f-</t>
-  </si>
-  <si>
-    <t>Ơ</t>
-  </si>
-  <si>
-    <t>PPCF[*\5iiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiitg33333333333333333333333333333333333333333333333333333333333333333333333333gs</t>
-  </si>
-  <si>
     <t>\</t>
   </si>
   <si>
@@ -376,9 +365,6 @@
   </si>
   <si>
     <t>*eơ/*ơ***poi</t>
-  </si>
-  <si>
-    <t>yA*&amp;UA&amp;;l888888888888888888888888888888888ooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo*----------------------------------------------------------------------111111111111111111121111111111111111111111111111111111111111111111111111111111111111111oo-l</t>
   </si>
 </sst>
 </file>
@@ -573,16 +559,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,11 +574,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -614,19 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1225,21 +1211,21 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="10" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1301,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1328,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1369,7 +1355,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1382,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1409,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1436,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1477,7 +1463,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1490,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1519,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1548,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1600,39 +1586,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BDB0E2-D717-431A-B9DC-D4DED14E3C28}">
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N218" sqref="N218"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="45.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="45.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1646,242 +1632,238 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="M20" t="e">
-        <f>\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1892,7 +1874,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1903,26 +1885,26 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="33" spans="9:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="I33" s="11" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="33" spans="9:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I33" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I35" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I36" s="7" t="s">
         <v>60</v>
       </c>
@@ -1939,7 +1921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I37" s="2">
         <v>1</v>
       </c>
@@ -1956,7 +1938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I38" s="2">
         <v>2</v>
       </c>
@@ -1965,12 +1947,12 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I42" s="7" t="s">
         <v>60</v>
       </c>
@@ -1987,7 +1969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I43" s="2">
         <v>1</v>
       </c>
@@ -2004,7 +1986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I44" s="2">
         <v>2</v>
       </c>
@@ -2021,7 +2003,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I45" s="2">
         <v>3</v>
       </c>
@@ -2038,24 +2020,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A60" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="I60" s="12" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="I60" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I62" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I63" s="7" t="s">
         <v>60</v>
       </c>
@@ -2072,7 +2054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>1</v>
       </c>
@@ -2089,12 +2071,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I67" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I68" s="7" t="s">
         <v>60</v>
       </c>
@@ -2111,7 +2093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I69" s="2">
         <v>1</v>
       </c>
@@ -2128,7 +2110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I70" s="2">
         <v>2</v>
       </c>
@@ -2145,7 +2127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I71" s="2">
         <v>3</v>
       </c>
@@ -2162,26 +2144,26 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-    </row>
-    <row r="80" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="I80" s="13" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="80" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I80" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="82" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I82" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I83" s="7" t="s">
         <v>60</v>
       </c>
@@ -2198,7 +2180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I84">
         <v>1</v>
       </c>
@@ -2215,12 +2197,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I87" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I88" s="7" t="s">
         <v>60</v>
       </c>
@@ -2237,7 +2219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I89" s="2">
         <v>1</v>
       </c>
@@ -2254,7 +2236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I90" s="2">
         <v>2</v>
       </c>
@@ -2271,33 +2253,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="100" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A100" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-    </row>
-    <row r="106" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="I106" s="9" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+    </row>
+    <row r="106" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I106" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I110" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I111" s="7" t="s">
         <v>60</v>
       </c>
@@ -2314,7 +2296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I112">
         <v>1</v>
       </c>
@@ -2331,105 +2313,102 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I115" s="6" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I114" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I116" s="7" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I115" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J115" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K116" s="7" t="s">
+      <c r="K115" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L116" s="7" t="s">
+      <c r="L115" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M116" s="7" t="s">
+      <c r="M115" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I116" s="2">
+        <v>1</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>110</v>
-      </c>
-      <c r="I118" s="2">
-        <v>2</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M118" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
-      </c>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>109</v>
       </c>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="9" t="s">
+    </row>
+    <row r="124" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A124" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-    </row>
-    <row r="131" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="I131" s="9" t="s">
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+    </row>
+    <row r="131" spans="9:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I131" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+    </row>
+    <row r="136" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I136" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I137" s="7" t="s">
         <v>60</v>
       </c>
@@ -2446,7 +2425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I138">
         <v>1</v>
       </c>
@@ -2463,22 +2442,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M139" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I141" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I142" s="7" t="s">
         <v>60</v>
       </c>
@@ -2495,7 +2469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I143" s="2">
         <v>1</v>
       </c>
@@ -2512,7 +2486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I144" s="2">
         <v>2</v>
       </c>
@@ -2529,7 +2503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I145" s="2">
         <v>3</v>
       </c>
@@ -2546,21 +2520,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M218" t="s">
-        <v>106</v>
-      </c>
-      <c r="N218" t="s">
-        <v>114</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
@@ -2573,17 +2545,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A124:C124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
